--- a/main/portfolioGC.xlsx
+++ b/main/portfolioGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/Portfolio-Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F55D30-3467-8A47-AAF9-A223B01AE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85B678-8C2E-C046-AC95-328BEEA9AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="17140" activeTab="1" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
+    <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
   </bookViews>
   <sheets>
     <sheet name="purchases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>ticker</t>
   </si>
@@ -104,6 +104,78 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t> $        177,86 </t>
+  </si>
+  <si>
+    <t> $    1.956,46 </t>
+  </si>
+  <si>
+    <t> $        548,49 </t>
+  </si>
+  <si>
+    <t> $    2.742,45 </t>
+  </si>
+  <si>
+    <t> $        149,48 </t>
+  </si>
+  <si>
+    <t> $    2.391,68 </t>
+  </si>
+  <si>
+    <t> $        102,44 </t>
+  </si>
+  <si>
+    <t> $    3.380,52 </t>
+  </si>
+  <si>
+    <t> $        883,00 </t>
+  </si>
+  <si>
+    <t> $ 15.011,00 </t>
+  </si>
+  <si>
+    <t> $        602,53 </t>
+  </si>
+  <si>
+    <t> $    4.217,71 </t>
+  </si>
+  <si>
+    <t> $           29,70 </t>
+  </si>
+  <si>
+    <t> $    1.485,00 </t>
+  </si>
+  <si>
+    <t> $        331,22 </t>
+  </si>
+  <si>
+    <t> $    4.968,30 </t>
+  </si>
+  <si>
+    <t> $        161,89 </t>
+  </si>
+  <si>
+    <t> $    3.885,36 </t>
+  </si>
+  <si>
+    <t> $           95,95 </t>
+  </si>
+  <si>
+    <t> $    3.166,35 </t>
+  </si>
+  <si>
+    <t> $        161,60 </t>
+  </si>
+  <si>
+    <t> $    2.585,60 </t>
+  </si>
+  <si>
+    <t> $    4.346,49 </t>
+  </si>
+  <si>
+    <t> $ 13.039,47 </t>
   </si>
 </sst>
 </file>
@@ -113,12 +185,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,10 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42D911-41A8-4849-85EC-13F151684FA2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,6 +804,210 @@
         <v>12637.41</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -733,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AD73A5-A5E7-864E-9478-060762D83B02}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/main/portfolioGC.xlsx
+++ b/main/portfolioGC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85B678-8C2E-C046-AC95-328BEEA9AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BAFF99-C8A8-2D4D-9CBF-A4F129D49531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>ticker</t>
   </si>
@@ -104,78 +104,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t> $        177,86 </t>
-  </si>
-  <si>
-    <t> $    1.956,46 </t>
-  </si>
-  <si>
-    <t> $        548,49 </t>
-  </si>
-  <si>
-    <t> $    2.742,45 </t>
-  </si>
-  <si>
-    <t> $        149,48 </t>
-  </si>
-  <si>
-    <t> $    2.391,68 </t>
-  </si>
-  <si>
-    <t> $        102,44 </t>
-  </si>
-  <si>
-    <t> $    3.380,52 </t>
-  </si>
-  <si>
-    <t> $        883,00 </t>
-  </si>
-  <si>
-    <t> $ 15.011,00 </t>
-  </si>
-  <si>
-    <t> $        602,53 </t>
-  </si>
-  <si>
-    <t> $    4.217,71 </t>
-  </si>
-  <si>
-    <t> $           29,70 </t>
-  </si>
-  <si>
-    <t> $    1.485,00 </t>
-  </si>
-  <si>
-    <t> $        331,22 </t>
-  </si>
-  <si>
-    <t> $    4.968,30 </t>
-  </si>
-  <si>
-    <t> $        161,89 </t>
-  </si>
-  <si>
-    <t> $    3.885,36 </t>
-  </si>
-  <si>
-    <t> $           95,95 </t>
-  </si>
-  <si>
-    <t> $    3.166,35 </t>
-  </si>
-  <si>
-    <t> $        161,60 </t>
-  </si>
-  <si>
-    <t> $    2.585,60 </t>
-  </si>
-  <si>
-    <t> $    4.346,49 </t>
-  </si>
-  <si>
-    <t> $ 13.039,47 </t>
   </si>
 </sst>
 </file>
@@ -220,12 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +494,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,13 +526,13 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>182.91</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <f>D2*C2</f>
         <v>2012.01</v>
       </c>
@@ -613,14 +544,14 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>575.6</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">D3*C3</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="0">D3*C3</f>
         <v>2878</v>
       </c>
     </row>
@@ -631,13 +562,13 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>137.97</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>2207.52</v>
       </c>
@@ -649,13 +580,13 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>33</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>99.42</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>3280.86</v>
       </c>
@@ -667,13 +598,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>911.23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>15490.91</v>
       </c>
@@ -685,13 +616,13 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>604.92999999999995</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>4234.5099999999993</v>
       </c>
@@ -703,13 +634,13 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>50</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>29.06</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>1453</v>
       </c>
@@ -721,13 +652,13 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>331.53</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>4972.95</v>
       </c>
@@ -739,13 +670,13 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>164.23</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>3941.5199999999995</v>
       </c>
@@ -757,13 +688,13 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>101</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>3333</v>
       </c>
@@ -775,13 +706,13 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>160.22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>2563.52</v>
       </c>
@@ -793,14 +724,14 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>4212.47</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
+      <c r="E13" s="5">
+        <f>D13*C13</f>
         <v>12637.41</v>
       </c>
     </row>
@@ -811,14 +742,15 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
+      <c r="D14">
+        <v>177.86</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ref="E14:E25" si="1">D14*C14</f>
+        <v>1956.46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -828,14 +760,15 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>25</v>
+      <c r="D15">
+        <v>548.49</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>2742.45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,14 +778,15 @@
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
+      <c r="D16">
+        <v>149.47999999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>2391.6799999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -862,14 +796,15 @@
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>33</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
+      <c r="D17">
+        <v>102.44</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>3380.52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -879,14 +814,15 @@
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
+      <c r="D18">
+        <v>883</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>15011</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,14 +832,15 @@
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
+      <c r="D19">
+        <v>602.53</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>4217.71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,14 +850,15 @@
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>50</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>35</v>
+      <c r="D20">
+        <v>29.7</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>1485</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,14 +868,15 @@
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
+      <c r="D21">
+        <v>331.22</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>4968.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,14 +886,15 @@
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>24</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
+      <c r="D22">
+        <v>161.88999999999999</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>3885.3599999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,14 +904,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>33</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>41</v>
+      <c r="D23">
+        <v>95.95</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>3166.35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,14 +922,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
+      <c r="D24">
+        <v>161.6</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>2585.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -998,14 +940,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
+      <c r="D25">
+        <v>4346.49</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>13039.47</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1105,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUM(purchases!E2:E14)</f>
-        <v>59005.209999999992</v>
+        <v>60961.669999999991</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/main/portfolioGC.xlsx
+++ b/main/portfolioGC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BAFF99-C8A8-2D4D-9CBF-A4F129D49531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FBFD3-6A47-FC43-9225-DA1630402A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>ticker</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42D911-41A8-4849-85EC-13F151684FA2}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>575.6</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E25" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E12" si="0">D3*C3</f>
         <v>2878</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>177.86</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E25" si="1">D14*C14</f>
+        <f t="shared" ref="E14:E24" si="1">D14*C14</f>
         <v>1956.46</v>
       </c>
     </row>
@@ -812,17 +812,17 @@
         <v>46006</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>883</v>
+        <v>602.53</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>15011</v>
+        <v>4217.71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,17 +830,17 @@
         <v>46006</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>602.53</v>
+        <v>29.7</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>4217.71</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -848,17 +848,17 @@
         <v>46006</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>29.7</v>
+        <v>331.22</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>1485</v>
+        <v>4968.3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,17 +866,17 @@
         <v>46006</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>331.22</v>
+        <v>161.88999999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>4968.3</v>
+        <v>3885.3599999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,17 +884,17 @@
         <v>46006</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>161.88999999999999</v>
+        <v>95.95</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>3885.3599999999997</v>
+        <v>3166.35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,17 +902,17 @@
         <v>46006</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>95.95</v>
+        <v>161.6</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>3166.35</v>
+        <v>2585.6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,33 +920,15 @@
         <v>46006</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>161.6</v>
+        <v>4346.49</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
-        <v>2585.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>46006</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>4346.49</v>
-      </c>
-      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>13039.47</v>
       </c>

--- a/main/portfolioGC.xlsx
+++ b/main/portfolioGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FBFD3-6A47-FC43-9225-DA1630402A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639DA730-937F-5E4E-B819-E454892A2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="680" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
+    <workbookView xWindow="15940" yWindow="-17940" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
   </bookViews>
   <sheets>
     <sheet name="purchases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>ticker</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42D911-41A8-4849-85EC-13F151684FA2}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>177.86</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E24" si="1">D14*C14</f>
+        <f t="shared" ref="E14:E36" si="1">D14*C14</f>
         <v>1956.46</v>
       </c>
     </row>
@@ -932,6 +932,225 @@
         <f t="shared" si="1"/>
         <v>13039.47</v>
       </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>191.7</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>2108.6999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>560.69000000000005</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>2803.4500000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>145.88999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>2334.2399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>107.3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>3540.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>863.74</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>5182.4400000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>607.88</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>4255.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>31.34</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>324.99</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>4874.8500000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>168.49</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>4043.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>90.9</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>2999.7000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>159.61000000000001</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>2553.7600000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4433.8900000000003</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>13301.670000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/portfolioGC.xlsx
+++ b/main/portfolioGC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639DA730-937F-5E4E-B819-E454892A2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E18823-1B1D-944C-92DA-F5F326A0499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="-17940" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
+    <workbookView xWindow="-4120" yWindow="-25000" windowWidth="28040" windowHeight="17140" xr2:uid="{70C19300-C0E3-3F49-9393-1087ED1B4C42}"/>
   </bookViews>
   <sheets>
     <sheet name="purchases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>ticker</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42D911-41A8-4849-85EC-13F151684FA2}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>177.86</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E36" si="1">D14*C14</f>
+        <f t="shared" ref="E14:E48" si="1">D14*C14</f>
         <v>1956.46</v>
       </c>
     </row>
@@ -1150,7 +1150,220 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>183.18</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>2014.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>582.19000000000005</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>2910.9500000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>142.62</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>2281.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>102.54</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>3383.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>920</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>614.65</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>4302.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="7">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>352.59</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>5288.8499999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="7">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>146.56</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>3517.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>89.7</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>2960.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>164.95</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>2639.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>4593.8900000000003</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>4593.8900000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
